--- a/biology/Médecine/Eugène_Marquis_(chirurgien_français)/Eugène_Marquis_(chirurgien_français).xlsx
+++ b/biology/Médecine/Eugène_Marquis_(chirurgien_français)/Eugène_Marquis_(chirurgien_français).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marquis_(chirurgien_fran%C3%A7ais)</t>
+          <t>Eugène_Marquis_(chirurgien_français)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Marquis, né le 27 mai 1879 à Bécherel (Ille-et-Vilaine) et mort le 14 avril 1963[1] à Paris, est un chirurgien français, spécialiste de cancérologie, fondateur en 1923 du Centre des Tumeurs à l'hospice de Pontchaillou à Rennes, rebaptisé en 1953 Centre Eugène-Marquis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Marquis, né le 27 mai 1879 à Bécherel (Ille-et-Vilaine) et mort le 14 avril 1963 à Paris, est un chirurgien français, spécialiste de cancérologie, fondateur en 1923 du Centre des Tumeurs à l'hospice de Pontchaillou à Rennes, rebaptisé en 1953 Centre Eugène-Marquis.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marquis_(chirurgien_fran%C3%A7ais)</t>
+          <t>Eugène_Marquis_(chirurgien_français)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Marquis est né le 27 mai 1879 à Bécherel, village d'Ille-et-Vilaine entre Rennes et Dinan[2], fils d'Eugène Marquis, médecin, et de Cyprienne Gâtel (1852-1942)[3]. Son mariage avec Ernestine Robert est publié le 12 février 1905[4].
-Il devient docteur en médecine en 1904 et fait ensuite son service militaire comme médecin auxiliaire de 2e classe au 70e régiment d'infanterie en 1905[5]. Il est membre de la société scientifique et médicale de l'Ouest, professeur suppléant à l'école de médecine en 1910[6], il enseigne à l'école des sages-femmes de Rennes en 1911[7]. En septembre 1913, il participe, avec son épouse, au 13e voyage d'études médicales aux eaux minérales et sanatoriums dans le sud-ouest de la France[8].
-Il part au front le 8 août 1914. En février 1915, il passe à l'ambulance 4/53 du 3e corps d'armée. Médecin-major de 2e classe à l'ambulance 5/10 en juin 1915[9], il prend en 1917 la direction de l'ambulance automobile chirurgicale (Auto-Chir) n°22 à Vasseny dans l'Aisne, siège de l'hôpital d'évacuation (HoE 18)[10]. Des témoins oculaires racontent le rôle du docteur Marquis au front[11].
-En 1919, il est nommé chirurgien du corps d'Armée basé à Rennes et de l'hôpital militaire de la ville[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Marquis est né le 27 mai 1879 à Bécherel, village d'Ille-et-Vilaine entre Rennes et Dinan, fils d'Eugène Marquis, médecin, et de Cyprienne Gâtel (1852-1942). Son mariage avec Ernestine Robert est publié le 12 février 1905.
+Il devient docteur en médecine en 1904 et fait ensuite son service militaire comme médecin auxiliaire de 2e classe au 70e régiment d'infanterie en 1905. Il est membre de la société scientifique et médicale de l'Ouest, professeur suppléant à l'école de médecine en 1910, il enseigne à l'école des sages-femmes de Rennes en 1911. En septembre 1913, il participe, avec son épouse, au 13e voyage d'études médicales aux eaux minérales et sanatoriums dans le sud-ouest de la France.
+Il part au front le 8 août 1914. En février 1915, il passe à l'ambulance 4/53 du 3e corps d'armée. Médecin-major de 2e classe à l'ambulance 5/10 en juin 1915, il prend en 1917 la direction de l'ambulance automobile chirurgicale (Auto-Chir) n°22 à Vasseny dans l'Aisne, siège de l'hôpital d'évacuation (HoE 18). Des témoins oculaires racontent le rôle du docteur Marquis au front.
+En 1919, il est nommé chirurgien du corps d'Armée basé à Rennes et de l'hôpital militaire de la ville.
 Professeur de pathologie externe en 1919, puis professeur de clinique chirurgicale en 1927, il devient directeur de l'école de médecine de Rennes en 1937.
-Médecin-lieutenant-colonel de réserve en 1928, il est promu en 1933 au grade de médecin-colonel de réserve à la 10e région militaire[13].
+Médecin-lieutenant-colonel de réserve en 1928, il est promu en 1933 au grade de médecin-colonel de réserve à la 10e région militaire.
 En mai 1940, par les hasards de la Drôle de guerre, Georges Duhamel rencontre Eugène Marquis à Rennes. Dans le court ouvrage que l'écrivain-chirurgien consacre aux trois mois passés à ses côtés pour soigner les réfugiés blessés, et qu'il dédie au Docteur Marquis, il dresse de celui-ci un portrait élogieux et chaleureux :
 « [...] Il a donné toute sa vie pour l'amour de sa noble profession, toute sa vie pour la santé, le salut et la gloire de son antique province [...] C'est un maître en chirurgie. S'il existait un ordre pour les praticiens de cet état, sans nul doute il en serait l'un des patriarches. Il opère tout le jour, forme des élèves, gouverne une école, donne des avis, des soins, des clartés à quatre ou cinq départements [...] »
 — Georges Duhamel, Lieu d'asile
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marquis_(chirurgien_fran%C3%A7ais)</t>
+          <t>Eugène_Marquis_(chirurgien_français)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,21 +568,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le Centre du cancer de Rennes
-En 1923, le Dr Marquis déclare son intention de créer à Rennes un Centre anti-cancéreux dans le vaste domaine de l'hospice de Pontchaillou, à l'ouest du Canal d'Ille-et-Rance et de la voie ferrée Rennes-Dol-Saint-Malo. Autorisé le 5 mai 1924 par arrêté du ministre du Travail et de l'Hygiène[14] le Centre anticancéreux de l'Ouest est inauguré le 28 juillet 1924 par Paul Bénazet, député de l'Indre, commissaire à la guerre chargé de l'éducation physique[15].
-Dix ans plus tard, devant l'afflux de malades de toute la Bretagne, le Pr Marquis lance le projet de la construction d'un bâtiment moderne financé par l’État avec des contributions des départements de l'Ouest. Le Centre du cancer, achevé à l'été 1936, devait être inauguré en octobre par Irène Joliot-Curie, sous-secrétaire d’État aux recherches scientifiques. La démission de la descendante de l'inventeur du radium, le 28 septembre 1936 remet en cause la date de l'inauguration[16].
+          <t>Le Centre du cancer de Rennes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1923, le Dr Marquis déclare son intention de créer à Rennes un Centre anti-cancéreux dans le vaste domaine de l'hospice de Pontchaillou, à l'ouest du Canal d'Ille-et-Rance et de la voie ferrée Rennes-Dol-Saint-Malo. Autorisé le 5 mai 1924 par arrêté du ministre du Travail et de l'Hygiène le Centre anticancéreux de l'Ouest est inauguré le 28 juillet 1924 par Paul Bénazet, député de l'Indre, commissaire à la guerre chargé de l'éducation physique.
+Dix ans plus tard, devant l'afflux de malades de toute la Bretagne, le Pr Marquis lance le projet de la construction d'un bâtiment moderne financé par l’État avec des contributions des départements de l'Ouest. Le Centre du cancer, achevé à l'été 1936, devait être inauguré en octobre par Irène Joliot-Curie, sous-secrétaire d’État aux recherches scientifiques. La démission de la descendante de l'inventeur du radium, le 28 septembre 1936 remet en cause la date de l'inauguration.
 « Avec ses deux ailes que l'ont dirait reployées en arrière par le vent d'une course, le bâtiment du Cancer montre une façade magnifique. Entre des jardins de roses et de rustiques champs d'avoine, il s'élève tout au fond de l'enclos de Pontchaillou. »
 — Georges Duhamel, Lieu d'asile
 C'est en 1950 que le Pr Marquis quitte la direction du centre qu'il avait créé 25 ans plus tôt. Son successeur, le Dr Ferey, propose immédiatement que l'institution prenne le nom de "Centre Eugène Marquis", conservé jusqu'à aujourd'hui.
-Communications, études, publications
-« Staphylococcies et coli-bacilloses puerpérales », Annales de gynécologie et d'obstétrique, janvier 1908, p. 207-221. Lire en ligne.
-« Diagnostic et rôle de la décalcification gravidique », L'Obstétrique, juin 1910, p. 561-580. Lire en ligne
-Pratique courante de chirurgie de guerre (cours de chirurgie de guerre faits pendant les hivers 1915-1916, 1916-1917 dans la Ve armée), Paris, Maloine, 1917, VI-362 p. Voir notice Bnf en ligne.
-Notes sur les résultats de la désinfection par la méthode de Carrel[17].
-« La lutte contre le cancer », L’Ouest-Éclair, 13 juillet 1926, p. 6. Lire en ligne.
-« Les limites actuelles de l'asepsie opératoire », La presse médicale, 11 février 1928, tiré à part, Paris, Masson, 1928, 16 p. Voir notice Bnf en ligne.
-Étude statistique des domiciles des cancéreux (1933)[18].
-Communication à l'Académie de médecine (1938) sur l'intérêt pour la santé publique d'imposer la déclaration des causes du décès[19].</t>
+</t>
         </is>
       </c>
     </row>
@@ -578,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marquis_(chirurgien_fran%C3%A7ais)</t>
+          <t>Eugène_Marquis_(chirurgien_français)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,24 +604,106 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Réalisations et travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Communications, études, publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Staphylococcies et coli-bacilloses puerpérales », Annales de gynécologie et d'obstétrique, janvier 1908, p. 207-221. Lire en ligne.
+« Diagnostic et rôle de la décalcification gravidique », L'Obstétrique, juin 1910, p. 561-580. Lire en ligne
+Pratique courante de chirurgie de guerre (cours de chirurgie de guerre faits pendant les hivers 1915-1916, 1916-1917 dans la Ve armée), Paris, Maloine, 1917, VI-362 p. Voir notice Bnf en ligne.
+Notes sur les résultats de la désinfection par la méthode de Carrel.
+« La lutte contre le cancer », L’Ouest-Éclair, 13 juillet 1926, p. 6. Lire en ligne.
+« Les limites actuelles de l'asepsie opératoire », La presse médicale, 11 février 1928, tiré à part, Paris, Masson, 1928, 16 p. Voir notice Bnf en ligne.
+Étude statistique des domiciles des cancéreux (1933).
+Communication à l'Académie de médecine (1938) sur l'intérêt pour la santé publique d'imposer la déclaration des causes du décès.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eugène_Marquis_(chirurgien_français)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Marquis_(chirurgien_fran%C3%A7ais)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Responsabilités administratives, associatives et syndicales
-Union nationale des combattants, section d'Ille-et-Vilaine : vice-président (1920-)[20].
-Rotary International, club de Rennes : fondateur (1930) et premier président (1930)[21]
-Confédération des syndicats médicaux français : vice-président ( -1933)[22], puis président.
-Commission du tarif des frais médicaux et pharmaceutiques en matière d'accidents du travail : membre de la 2ème section (1935-)[23].
-Conseil supérieur d'hygiène sociale : membre de la 3ème commission "Cancer" (1938-)[24].
-Syndicat des chirurgiens : secrétaire général (1932-1934)[25],[26].
-Ordre des médecins, Conseil du collège départemental d'Ille-et-Vilaine : président (1943)[27].
-Association médicale mondiale (World Medical Association) : président dès la création de l'association en 1947 à Paris[28].
-Décorations
-En 1911, E. Marquis est nommé officier d'académie, en tant que professeur suppléant à l'école de plein exercice de médecine et de pharmacie de Rennes[29], puis en 1920 officier de l'Instruction publique[30].
-Au cours de la Première Guerre mondiale, Eugène Marquis est décoré de la Croix de Guerre avec citation à l'ordre de l'armée (palme) et fait chevalier de la Légion d'Honneur le 1er octobre 1917. Il est promu au grade d'officier de la Légion d'Honneur le 29 décembre 1929, puis au grade de commandeur le 23 décembre 1937[31],[32].
-Par décret du 26 septembre 1938 Eugène Marquis, professeur à la Faculté de médecine de Rennes, est nommé commandeur de l'Ordre de la Santé publique[33].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Responsabilités administratives, associatives et syndicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Union nationale des combattants, section d'Ille-et-Vilaine : vice-président (1920-).
+Rotary International, club de Rennes : fondateur (1930) et premier président (1930)
+Confédération des syndicats médicaux français : vice-président ( -1933), puis président.
+Commission du tarif des frais médicaux et pharmaceutiques en matière d'accidents du travail : membre de la 2ème section (1935-).
+Conseil supérieur d'hygiène sociale : membre de la 3ème commission "Cancer" (1938-).
+Syndicat des chirurgiens : secrétaire général (1932-1934),.
+Ordre des médecins, Conseil du collège départemental d'Ille-et-Vilaine : président (1943).
+Association médicale mondiale (World Medical Association) : président dès la création de l'association en 1947 à Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eugène_Marquis_(chirurgien_français)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Marquis_(chirurgien_fran%C3%A7ais)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Titres et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1911, E. Marquis est nommé officier d'académie, en tant que professeur suppléant à l'école de plein exercice de médecine et de pharmacie de Rennes, puis en 1920 officier de l'Instruction publique.
+Au cours de la Première Guerre mondiale, Eugène Marquis est décoré de la Croix de Guerre avec citation à l'ordre de l'armée (palme) et fait chevalier de la Légion d'Honneur le 1er octobre 1917. Il est promu au grade d'officier de la Légion d'Honneur le 29 décembre 1929, puis au grade de commandeur le 23 décembre 1937,.
+Par décret du 26 septembre 1938 Eugène Marquis, professeur à la Faculté de médecine de Rennes, est nommé commandeur de l'Ordre de la Santé publique.
 </t>
         </is>
       </c>
